--- a/Data/fertility_rates_by_municipality_2021.xlsx
+++ b/Data/fertility_rates_by_municipality_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a774e1dcaf53a44/Stalinis kompiuteris/ITU/GitHub/GDS/geospatial/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048F829DA5C745ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E42D725-F711-466D-9C78-B8BF89795E34}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048F829DA5C745ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B1DCAB-B027-4FB2-9F0F-D544AA279414}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -662,9 +662,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,6 +677,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -959,11 +960,11 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="5">
+      <c r="B1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -995,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1195,7 +1196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>138</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>165</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>173</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>175</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>179</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>182</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>190</v>
       </c>

--- a/Data/fertility_rates_by_municipality_2021.xlsx
+++ b/Data/fertility_rates_by_municipality_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a774e1dcaf53a44/Stalinis kompiuteris/ITU/GitHub/GDS/geospatial/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048F829DA5C745ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B1DCAB-B027-4FB2-9F0F-D544AA279414}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048F829DA5C745ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39B46A3-DFF4-405E-94A8-8FB3CD927041}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
